--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.59414001263114</v>
+        <v>91.10297267703832</v>
       </c>
       <c r="D2" t="n">
-        <v>19.54732377542466</v>
+        <v>16.04378130030676</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.0908939934527</v>
+        <v>91.41091776783547</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03693287518292</v>
+        <v>17.88254564370196</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.51933971963757</v>
+        <v>85.32361716038896</v>
       </c>
       <c r="D4" t="n">
-        <v>18.19595933651925</v>
+        <v>16.00737389134986</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.37320944779596</v>
+        <v>88.43226639001419</v>
       </c>
       <c r="D5" t="n">
-        <v>15.57086250954617</v>
+        <v>17.17017637274004</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.80647353598449</v>
+        <v>86.65226315511347</v>
       </c>
       <c r="D6" t="n">
-        <v>14.50523820399019</v>
+        <v>17.5307454112381</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.03805534549558</v>
+        <v>81.41580635185059</v>
       </c>
       <c r="D7" t="n">
-        <v>18.63021564247092</v>
+        <v>17.58435818412172</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.12944874399322</v>
+        <v>82.08790064947135</v>
       </c>
       <c r="D8" t="n">
-        <v>16.95174664311491</v>
+        <v>15.51848745369434</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.23643784698631</v>
+        <v>83.2533510414876</v>
       </c>
       <c r="D9" t="n">
-        <v>18.3480343894258</v>
+        <v>18.4938648968796</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>78.33724054211366</v>
+        <v>83.71057923572496</v>
       </c>
       <c r="D10" t="n">
-        <v>15.44860039900126</v>
+        <v>15.76317364447863</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13056370850526</v>
+        <v>80.34036252273658</v>
       </c>
       <c r="D11" t="n">
-        <v>15.33881689014898</v>
+        <v>16.87073287895051</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.73318004296989</v>
+        <v>83.11682139378945</v>
       </c>
       <c r="D12" t="n">
-        <v>18.20027600788253</v>
+        <v>16.37615685589892</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.51133359621039</v>
+        <v>78.28572245596659</v>
       </c>
       <c r="D13" t="n">
-        <v>15.43552834656408</v>
+        <v>15.86245459801669</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.26436183690974</v>
+        <v>80.25379997638254</v>
       </c>
       <c r="D14" t="n">
-        <v>18.46183651074195</v>
+        <v>19.3177570958835</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.64961106879625</v>
+        <v>75.77365256842558</v>
       </c>
       <c r="D15" t="n">
-        <v>18.75623870624742</v>
+        <v>17.13066038759409</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.7536156976429</v>
+        <v>76.6361081176501</v>
       </c>
       <c r="D16" t="n">
-        <v>18.64475947600155</v>
+        <v>16.78393608364328</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.98922479195272</v>
+        <v>76.07146737310873</v>
       </c>
       <c r="D17" t="n">
-        <v>17.70721407005741</v>
+        <v>14.71663964545669</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.18462301046947</v>
+        <v>69.82886322349077</v>
       </c>
       <c r="D18" t="n">
-        <v>19.09913472586765</v>
+        <v>16.11167549346178</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>69.27370101035605</v>
+        <v>70.08316294266234</v>
       </c>
       <c r="D19" t="n">
-        <v>19.53011312778426</v>
+        <v>18.45926788528359</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.73515752489838</v>
+        <v>72.27647673666819</v>
       </c>
       <c r="D20" t="n">
-        <v>18.88180926067831</v>
+        <v>17.28195085464697</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>67.50862771304679</v>
+        <v>69.39823153640927</v>
       </c>
       <c r="D21" t="n">
-        <v>16.46250840694729</v>
+        <v>17.54463203760522</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.26306790801411</v>
+        <v>68.48158995798968</v>
       </c>
       <c r="D22" t="n">
-        <v>20.11178000267737</v>
+        <v>17.8979849000452</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.52692795317559</v>
+        <v>67.34702515766348</v>
       </c>
       <c r="D23" t="n">
-        <v>16.7195468126991</v>
+        <v>18.37716665334624</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>63.92988071928481</v>
+        <v>70.38797156866025</v>
       </c>
       <c r="D24" t="n">
-        <v>21.6521639107283</v>
+        <v>17.11092116593004</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.76646719836822</v>
+        <v>66.76756234168087</v>
       </c>
       <c r="D25" t="n">
-        <v>18.34482844916385</v>
+        <v>16.61369599749062</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.41870283068995</v>
+        <v>65.0697023246816</v>
       </c>
       <c r="D26" t="n">
-        <v>18.43834457044508</v>
+        <v>18.45450850938085</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.6927029264845</v>
+        <v>62.84855816976255</v>
       </c>
       <c r="D27" t="n">
-        <v>18.54861467260205</v>
+        <v>18.19000583934359</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.36005237513927</v>
+        <v>62.62190995778941</v>
       </c>
       <c r="D28" t="n">
-        <v>18.23765088742146</v>
+        <v>17.1573924460625</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.50034713726595</v>
+        <v>64.09431034922339</v>
       </c>
       <c r="D29" t="n">
-        <v>17.51052351325174</v>
+        <v>15.56121340302478</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>58.49432077320237</v>
+        <v>60.45041318933144</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1178026581015</v>
+        <v>16.64398271095405</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.30071596913343</v>
+        <v>60.44750308859447</v>
       </c>
       <c r="D31" t="n">
-        <v>19.40335633850207</v>
+        <v>17.39085409403468</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.14770303707528</v>
+        <v>55.98941610228933</v>
       </c>
       <c r="D32" t="n">
-        <v>17.37647600000253</v>
+        <v>18.12377996953948</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.85411130362669</v>
+        <v>58.48101961440663</v>
       </c>
       <c r="D33" t="n">
-        <v>17.94175357772943</v>
+        <v>18.80862538888877</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>61.33888231238984</v>
+        <v>58.32454720073328</v>
       </c>
       <c r="D34" t="n">
-        <v>18.33259060542014</v>
+        <v>16.62871103566041</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.05229658478129</v>
+        <v>59.18760069749439</v>
       </c>
       <c r="D35" t="n">
-        <v>17.66494730449522</v>
+        <v>17.73705820517316</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.83887280589045</v>
+        <v>57.10497096139358</v>
       </c>
       <c r="D36" t="n">
-        <v>18.43101217063686</v>
+        <v>17.1713898759912</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>58.09819596537289</v>
+        <v>53.87722269052326</v>
       </c>
       <c r="D37" t="n">
-        <v>16.97096199483675</v>
+        <v>17.10207489682745</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.14180899605438</v>
+        <v>55.80025885253443</v>
       </c>
       <c r="D38" t="n">
-        <v>19.00630320045796</v>
+        <v>15.94578280691164</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.45063982596726</v>
+        <v>53.59257010521294</v>
       </c>
       <c r="D39" t="n">
-        <v>18.53029414868976</v>
+        <v>18.56167495776023</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.59570451448199</v>
+        <v>52.51289166882923</v>
       </c>
       <c r="D40" t="n">
-        <v>17.57155291401851</v>
+        <v>16.4056973951881</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.7270214047183</v>
+        <v>54.55926545045769</v>
       </c>
       <c r="D41" t="n">
-        <v>18.65195071087574</v>
+        <v>17.21813112446553</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.74358340315597</v>
+        <v>53.40589374505421</v>
       </c>
       <c r="D42" t="n">
-        <v>17.46899156822937</v>
+        <v>15.436731247323</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.06154830353572</v>
+        <v>47.52579900428399</v>
       </c>
       <c r="D43" t="n">
-        <v>18.88246809115024</v>
+        <v>17.25918079695335</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.74647298021004</v>
+        <v>48.17728646989367</v>
       </c>
       <c r="D44" t="n">
-        <v>18.61756195760059</v>
+        <v>19.2159444922632</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.73951728447196</v>
+        <v>47.97380372969987</v>
       </c>
       <c r="D45" t="n">
-        <v>19.27149455139644</v>
+        <v>17.86125406285871</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.38986041703012</v>
+        <v>46.54906162984818</v>
       </c>
       <c r="D46" t="n">
-        <v>18.48363573734109</v>
+        <v>18.6096953061693</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.86585279637153</v>
+        <v>43.44201118381904</v>
       </c>
       <c r="D47" t="n">
-        <v>19.02262299988139</v>
+        <v>15.61728734049061</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.13038918277738</v>
+        <v>44.69565326819195</v>
       </c>
       <c r="D48" t="n">
-        <v>17.3163004132468</v>
+        <v>19.79531052221255</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.81961054642584</v>
+        <v>41.95477668076578</v>
       </c>
       <c r="D49" t="n">
-        <v>17.00083394928755</v>
+        <v>18.87980523173987</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.68225780795819</v>
+        <v>41.93882151689559</v>
       </c>
       <c r="D50" t="n">
-        <v>19.41919337078686</v>
+        <v>17.85943353682934</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.75670483939058</v>
+        <v>43.11856120649875</v>
       </c>
       <c r="D51" t="n">
-        <v>19.85932613301578</v>
+        <v>18.13132143920846</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07216510905462</v>
+        <v>39.88618995164106</v>
       </c>
       <c r="D52" t="n">
-        <v>20.50194115926541</v>
+        <v>18.53895805117304</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>35.58809407211577</v>
+        <v>37.08484273505541</v>
       </c>
       <c r="D53" t="n">
-        <v>18.20068634028848</v>
+        <v>18.2732231356331</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.924087372016</v>
+        <v>36.46521899711385</v>
       </c>
       <c r="D54" t="n">
-        <v>17.24015676135059</v>
+        <v>18.38968756481712</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00396183513694</v>
+        <v>36.58363079215309</v>
       </c>
       <c r="D55" t="n">
-        <v>18.94681317058098</v>
+        <v>19.8573894421764</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>39.44257893545339</v>
+        <v>37.08688244950778</v>
       </c>
       <c r="D56" t="n">
-        <v>16.46141120268446</v>
+        <v>15.95418724562917</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.76779984047023</v>
+        <v>31.69465948765031</v>
       </c>
       <c r="D57" t="n">
-        <v>18.23837143784096</v>
+        <v>19.57064631709663</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.63980512329944</v>
+        <v>32.27672434714388</v>
       </c>
       <c r="D58" t="n">
-        <v>15.35149782497905</v>
+        <v>19.68629934003092</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02315053512785</v>
+        <v>31.75540950810775</v>
       </c>
       <c r="D59" t="n">
-        <v>16.19231571067608</v>
+        <v>20.03181201744672</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.97378792530032</v>
+        <v>30.4065144872982</v>
       </c>
       <c r="D60" t="n">
-        <v>17.67605112467885</v>
+        <v>18.49879415294942</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.66368875507486</v>
+        <v>32.34064864462666</v>
       </c>
       <c r="D61" t="n">
-        <v>16.42989334004012</v>
+        <v>16.59991300078201</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.00090396386066</v>
+        <v>31.31653891344986</v>
       </c>
       <c r="D62" t="n">
-        <v>17.81861522451874</v>
+        <v>19.37077889324772</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.17849813591272</v>
+        <v>28.08857157223985</v>
       </c>
       <c r="D63" t="n">
-        <v>16.72024447148489</v>
+        <v>19.47130643157861</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>23.97339446830621</v>
+        <v>25.51143815301617</v>
       </c>
       <c r="D64" t="n">
-        <v>17.73225492951605</v>
+        <v>16.46008107586706</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.59543157419863</v>
+        <v>25.90474487468805</v>
       </c>
       <c r="D65" t="n">
-        <v>16.50664945698091</v>
+        <v>22.26029366746258</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.23225261158814</v>
+        <v>27.44021895838782</v>
       </c>
       <c r="D66" t="n">
-        <v>22.17642172673972</v>
+        <v>17.18448048470834</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>21.68111558371538</v>
+        <v>26.5230628127775</v>
       </c>
       <c r="D67" t="n">
-        <v>18.32511689696043</v>
+        <v>16.10328700005923</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.4762962405244</v>
+        <v>22.21664447103977</v>
       </c>
       <c r="D68" t="n">
-        <v>17.53086095296868</v>
+        <v>18.8285694294788</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>26.07482346190495</v>
+        <v>21.70388837418315</v>
       </c>
       <c r="D69" t="n">
-        <v>18.46954621056488</v>
+        <v>16.30582253664171</v>
       </c>
     </row>
   </sheetData>
